--- a/data/trans_camb/P22_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P22_R-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>-9,28</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,18</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,65</t>
+          <t>-11,43</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>-9,72</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,89</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,73</t>
+          <t>13,25</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-10,48</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,57</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,97</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,35; 12,7</t>
+          <t>-34,33; 10,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 24,13</t>
+          <t>-27,83; 23,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,99; 10,4</t>
+          <t>-41,39; 10,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-16,07; 16,16</t>
+          <t>-28,31; 8,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,77; 7,28</t>
+          <t>-18,31; 21,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 14,31</t>
+          <t>-7,75; 34,34</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-25,72; 4,9</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-18,34; 16,53</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-20,18; 18,39</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,35%</t>
+          <t>-26,07%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>37,37%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-6,82%</t>
+          <t>-32,13%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>-19,84%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-5,79%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>14,52%</t>
+          <t>27,04%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-24,05%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1,32%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2,23%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-44,91; 74,57</t>
+          <t>-72,85; 40,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-19,71; 136,02</t>
+          <t>-59,84; 86,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-36,43; 32,33</t>
+          <t>-83,61; 38,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-36,68; 48,7</t>
+          <t>-50,13; 22,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-31,69; 26,36</t>
+          <t>-32,33; 55,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-18,05; 52,27</t>
+          <t>-14,67; 87,53</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-52,44; 13,72</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-36,88; 42,87</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-42,81; 47,34</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,77</t>
+          <t>-3,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,06</t>
+          <t>-5,64</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,1</t>
+          <t>-4,45</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,56</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,92</t>
+          <t>-3,82</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-2,27</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-1,99</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-4,24</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,68; 6,41</t>
+          <t>-17,05; 10,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,06; 8,12</t>
+          <t>-19,11; 8,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,7; 6,7</t>
+          <t>-18,35; 10,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,56; 8,26</t>
+          <t>-11,51; 9,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 4,12</t>
+          <t>-7,9; 13,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 4,52</t>
+          <t>-14,91; 6,5</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-10,71; 5,67</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-10,01; 7,61</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-13,19; 3,57</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-7,47%</t>
+          <t>-7,32%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-8,24%</t>
+          <t>-13,78%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-4,79%</t>
+          <t>-10,87%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,34%</t>
+          <t>-3,23%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-6,31%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-4,74%</t>
+          <t>-8,57%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-5,3%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-4,66%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-9,9%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-30,44; 20,57</t>
+          <t>-35,87; 31,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-31,71; 24,94</t>
+          <t>-39,61; 25,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-21,96; 16,77</t>
+          <t>-40,63; 32,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,6; 20,87</t>
+          <t>-23,51; 23,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-20,34; 10,88</t>
+          <t>-16,54; 34,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-20,58; 12,07</t>
+          <t>-29,23; 16,39</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-22,44; 14,82</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-21,73; 19,98</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-28,74; 8,71</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,81</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>3,12</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,38</t>
+          <t>-4,43</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2,81</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-1,1</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,63; 10,69</t>
+          <t>-13,88; 12,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 14,84</t>
+          <t>-8,01; 17,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 10,29</t>
+          <t>-10,05; 15,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 9,74</t>
+          <t>-9,53; 12,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 6,82</t>
+          <t>-10,3; 12,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 9,0</t>
+          <t>-16,24; 6,79</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-8,62; 9,58</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-5,46; 11,72</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-9,17; 8,14</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-1,18%</t>
+          <t>-2,43%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>13,74%</t>
+          <t>13,13%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>8,31%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>-10,1%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-0,23%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>6,84%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-2,67%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-26,46; 36,48</t>
+          <t>-32,18; 40,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-14,65; 50,51</t>
+          <t>-18,98; 57,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-15,59; 24,72</t>
+          <t>-23,9; 48,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-16,6; 23,24</t>
+          <t>-20,42; 32,61</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-15,18; 18,11</t>
+          <t>-21,02; 31,6</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 24,98</t>
+          <t>-32,7; 17,67</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-19,39; 25,03</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-12,0; 31,43</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-20,41; 21,78</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,63</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,09</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 4,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 7,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 4,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 5,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 2,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 4,7</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-4,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-2,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-3,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-22,13; 15,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-15,96; 24,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-14,84; 10,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-13,77; 13,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-13,69; 7,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-9,84; 12,16</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-3,18</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-1,15</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-3,22</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-1,68</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1,98</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-0,61</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-2,53</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,25</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-2,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-11,74; 5,83</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-10,43; 8,17</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-13,06; 6,62</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-8,41; 5,17</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-5,33; 9,1</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-8,07; 6,73</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-8,5; 2,79</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-5,86; 6,19</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-7,99; 4,66</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-8,14%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-2,94%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-8,25%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-3,75%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>4,42%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-1,37%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-5,98%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>0,58%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-4,93%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-27,07; 16,69</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-23,76; 23,07</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-30,88; 18,97</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-17,2; 12,76</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-10,98; 21,34</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-16,68; 16,06</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-18,72; 6,9</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-13,11; 15,65</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-18,08; 11,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
